--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +32,33 @@
   <si>
     <t>多种</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程书籍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=526174995810&amp;spm=a1z09.2.0.0.74412e8dQP4fy1&amp;_u=13s1sni995d</t>
   </si>
 </sst>
 </file>
@@ -380,7 +407,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -411,10 +438,30 @@
         <v>82.59</v>
       </c>
     </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>20180401</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>39.53</v>
+      </c>
+    </row>
     <row r="10" spans="2:7">
       <c r="G10">
         <f>SUM(G2:G9)</f>
-        <v>82.59</v>
+        <v>122.12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=526174995810&amp;spm=a1z09.2.0.0.74412e8dQP4fy1&amp;_u=13s1sni995d</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种电子元器件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,7 +431,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -458,10 +482,30 @@
         <v>39.53</v>
       </c>
     </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>20180402</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>42.58</v>
+      </c>
+    </row>
     <row r="10" spans="2:7">
       <c r="G10">
         <f>SUM(G2:G9)</f>
-        <v>122.12</v>
+        <v>164.7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,33 @@
   <si>
     <t>多种</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只收纳盒积木</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.26305edbojRamN&amp;id=18854347328&amp;ns=1&amp;abbucket=19#detail</t>
   </si>
 </sst>
 </file>
@@ -431,7 +458,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -502,10 +529,30 @@
         <v>42.58</v>
       </c>
     </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>20180403</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
     <row r="10" spans="2:7">
       <c r="G10">
         <f>SUM(G2:G9)</f>
-        <v>164.7</v>
+        <v>214.7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,87 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.26305edbojRamN&amp;id=18854347328&amp;ns=1&amp;abbucket=19#detail</t>
+  </si>
+  <si>
+    <t>制版费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制版费预付款</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉利创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手续费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -467,9 +548,15 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:8">
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2">
         <v>20180401</v>
       </c>
@@ -489,7 +576,7 @@
         <v>82.59</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>20180401</v>
       </c>
@@ -509,7 +596,7 @@
         <v>39.53</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>20180402</v>
       </c>
@@ -529,7 +616,7 @@
         <v>42.58</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>20180403</v>
       </c>
@@ -549,10 +636,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>20180407</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="G10">
         <f>SUM(G2:G9)</f>
-        <v>214.7</v>
+        <v>416.7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,33 @@
       <t>手续费</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Arduino</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=523957302031&amp;spm=a1z09.2.0.0.67472e8dmMWeK8&amp;_u=c3s1snif6c7</t>
   </si>
 </sst>
 </file>
@@ -536,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -656,10 +683,42 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>20180412</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
     <row r="10" spans="2:8">
-      <c r="G10">
-        <f>SUM(G2:G9)</f>
-        <v>416.7</v>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="G13">
+        <f>SUM(G2:G12)</f>
+        <v>585.70000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,106 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=523957302031&amp;spm=a1z09.2.0.0.67472e8dmMWeK8&amp;_u=c3s1snif6c7</t>
+  </si>
+  <si>
+    <t>调试设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.23ab2e8dWpNBqI&amp;id=557557810001&amp;_u=k3s1sni3d12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种元器件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DC1205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>器件等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=18909649890&amp;spm=a1z09.2.0.0.23ab2e8dWpNBqI&amp;_u=k3s1sni67e2</t>
   </si>
 </sst>
 </file>
@@ -563,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -704,21 +804,77 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8">
+        <v>20180418</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9">
+        <v>20180419</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="G13">
-        <f>SUM(G2:G12)</f>
-        <v>585.70000000000005</v>
+      <c r="B10">
+        <v>20180420</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="G15">
+        <f>SUM(G2:G14)</f>
+        <v>802.2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=18909649890&amp;spm=a1z09.2.0.0.23ab2e8dWpNBqI&amp;_u=k3s1sni67e2</t>
+  </si>
+  <si>
+    <t>多种元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -663,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -820,7 +828,10 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>155</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -864,17 +875,56 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11">
+        <v>20180422</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>71.599999999999994</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12">
+        <v>20180426</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>41.65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="G15">
-        <f>SUM(G2:G14)</f>
-        <v>802.2</v>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>780.45</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,59 @@
   </si>
   <si>
     <t>后退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手续费</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -914,17 +967,37 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14">
+        <v>20180505</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>301.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="18" spans="7:7">
-      <c r="G18">
-        <f>SUM(G2:G17)</f>
-        <v>780.45</v>
+    <row r="16" spans="2:8">
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19">
+        <f>SUM(G2:G18)</f>
+        <v>1082.25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后退货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -378,6 +374,159 @@
       </rPr>
       <t>手续费</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万用表和DCDC模块等多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.19c92e8dosKiwC&amp;id=524721396904&amp;_u=f3s1sni7f0a</t>
+  </si>
+  <si>
+    <t>树莓派Z0套餐5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532和电源适配器等多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC模块和阻容件等多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.19c92e8dosKiwC&amp;id=44009812994&amp;_u=f3s1sni3a33</t>
+  </si>
+  <si>
+    <t>AD797芯片4片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退货，此费用为退货快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7寸HDMI显示屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.19c92e8dosKiwC&amp;id=45588381158&amp;_u=f3s1snib2ec</t>
+  </si>
+  <si>
+    <t>DS1302和ASM1117等芯片多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V电源适配器2只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=43973477555&amp;spm=a1z09.2.0.0.19c92e8dosKiwC&amp;_u=f3s1sni5c61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STM32F103</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心板等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;id=533846397128&amp;_u=f3s1sni60da</t>
+  </si>
+  <si>
+    <t>电池盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;id=523858751320&amp;_u=f3s1snib17f</t>
+  </si>
+  <si>
+    <t>18650充电电池6节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互感器，剥线钳，软排线等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV信号采集卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;id=45113244338&amp;_u=f3s1sni3b8f</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;id=38510789034&amp;_u=f3s1snied41</t>
+  </si>
+  <si>
+    <t>低照度摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=558634434297&amp;spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;_u=f3s1snicf6f&amp;sku_properties=1627207:28341</t>
+  </si>
+  <si>
+    <t>USB延长线10米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7c1f2e8dRKQEN9&amp;id=556129616183&amp;_u=f3s1snid0d1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开专票，加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +551,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -424,15 +588,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -881,10 +1051,10 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -940,6 +1110,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G11">
         <v>71.599999999999994</v>
       </c>
@@ -957,14 +1130,32 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G12">
         <v>41.65</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13">
+        <v>20180430</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
@@ -983,27 +1174,295 @@
         <v>301.8</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15">
+        <v>20180502</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>44.9</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="19" spans="7:7">
+      <c r="B16">
+        <v>20180502</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>20180503</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>20180505</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>20180508</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G19">
-        <f>SUM(G2:G18)</f>
-        <v>1082.25</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>20180509</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>20180509</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>20180509</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>20180514</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>56.69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>20180515</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>20180515</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>20180515</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <v>20180515</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27">
+        <v>252</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33">
+        <f>SUM(G2:G32)</f>
+        <v>2271.9900000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,78 @@
   </si>
   <si>
     <t>树莓派3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手续费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18B20温度传感器2只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.19582e8dSsrwoo&amp;id=40136798728&amp;_u=t3s1sni8843</t>
+  </si>
+  <si>
+    <t>插排和键鼠X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子票，普票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1441,19 +1513,74 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28">
+        <v>20180523</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <v>99.7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33">
-        <f>SUM(G2:G32)</f>
-        <v>2271.9900000000002</v>
+      <c r="B29">
+        <v>20180526</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <v>20180529</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>503</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35">
+        <f>SUM(G2:G34)</f>
+        <v>2891.89</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,13 @@
   </si>
   <si>
     <t>电子票，普票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.54512e8dlqZF6Z&amp;id=39820734199&amp;_u=v3s1snia23b</t>
+  </si>
+  <si>
+    <t>BNC转SMA线1米X2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1573,14 +1580,29 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31">
+        <v>20180530</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35">
         <f>SUM(G2:G34)</f>
-        <v>2891.89</v>
+        <v>2922.69</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,59 @@
   </si>
   <si>
     <t>BNC转SMA线1米X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手续费</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +1029,7 @@
   <dimension ref="B1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1599,10 +1652,30 @@
         <v>30.8</v>
       </c>
     </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>20180603</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>1006</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="35" spans="7:7">
       <c r="G35">
         <f>SUM(G2:G34)</f>
-        <v>2922.69</v>
+        <v>3928.69</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,40 @@
       </rPr>
       <t>手续费</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB对接头X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=40690897992&amp;spm=a1z09.2.0.0.322b2e8dAH1CId&amp;_u=d3s1sni5faf</t>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC转接头等多件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转接头，软排线，双面板等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.322b2e8dAH1CId&amp;id=570564308967&amp;_u=d3s1sni4880</t>
+  </si>
+  <si>
+    <t>调试设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接线板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1672,10 +1706,80 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>20180613</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>20180613</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>20180613</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
       <c r="G35">
-        <f>SUM(G2:G34)</f>
-        <v>3928.69</v>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="G39">
+        <f>SUM(G2:G38)</f>
+        <v>4024.53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,18 @@
   </si>
   <si>
     <t>接线板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用驱动电路设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1767,19 +1779,46 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36">
+        <v>20180620</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36">
+        <v>148.80000000000001</v>
+      </c>
     </row>
     <row r="37" spans="2:7">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="G39">
-        <f>SUM(G2:G38)</f>
-        <v>4024.53</v>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="G41">
+        <f>SUM(G2:G40)</f>
+        <v>4173.33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,26 @@
   </si>
   <si>
     <t>5本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830+0.6手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U谷餐厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1718,7 +1738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>20180613</v>
       </c>
@@ -1738,7 +1758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>20180613</v>
       </c>
@@ -1758,7 +1778,7 @@
         <v>32.94</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>20180613</v>
       </c>
@@ -1778,7 +1798,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:8">
       <c r="B36">
         <v>20180620</v>
       </c>
@@ -1798,27 +1818,61 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>20180629</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="G37">
+        <v>834.98</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>20180629</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="G38">
+        <v>13.5</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="G41">
-        <f>SUM(G2:G40)</f>
-        <v>4173.33</v>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="G42">
+        <f>SUM(G2:G41)</f>
+        <v>5021.8099999999995</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
+++ b/doc/财务记录/XDM-I研发采购18年4月-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,21 @@
   </si>
   <si>
     <t>U谷餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.38922e8dnsnsbT&amp;id=16295402936&amp;_u=13s1sni889f</t>
+  </si>
+  <si>
+    <t>调试设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内窥镜2米线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1859,10 +1874,24 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39">
+        <v>20180630</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="1"/>
@@ -1872,7 +1901,7 @@
     <row r="42" spans="2:8">
       <c r="G42">
         <f>SUM(G2:G41)</f>
-        <v>5021.8099999999995</v>
+        <v>5064.8099999999995</v>
       </c>
     </row>
   </sheetData>
